--- a/data_year/zb/工业/按行业分大中型工业企业主要经济指标(2000-2002)/工业销售产值(现价).xlsx
+++ b/data_year/zb/工业/按行业分大中型工业企业主要经济指标(2000-2002)/工业销售产值(现价).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,387 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>1168.60086</v>
-      </c>
-      <c r="C2" t="n">
-        <v>3947.94331</v>
-      </c>
-      <c r="D2" t="n">
-        <v>385.63412</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.03941</v>
-      </c>
-      <c r="F2" t="n">
-        <v>157.52662</v>
-      </c>
-      <c r="G2" t="n">
-        <v>3357.77645</v>
-      </c>
-      <c r="H2" t="n">
-        <v>917.60752</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1054.2171</v>
-      </c>
-      <c r="J2" t="n">
-        <v>225.98606</v>
-      </c>
-      <c r="K2" t="n">
-        <v>530.02971</v>
-      </c>
-      <c r="L2" t="n">
-        <v>48328.18851</v>
-      </c>
-      <c r="M2" t="n">
-        <v>53.3776</v>
-      </c>
-      <c r="N2" t="n">
-        <v>132.37151</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1522.43816</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1315.2604</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>151.64093</v>
-      </c>
-      <c r="R2" t="n">
-        <v>487.07773</v>
-      </c>
-      <c r="S2" t="n">
-        <v>168.81767</v>
-      </c>
-      <c r="T2" t="n">
-        <v>94.31147</v>
-      </c>
-      <c r="U2" t="n">
-        <v>426.8792</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1313.29431</v>
-      </c>
-      <c r="W2" t="n">
-        <v>126.67332</v>
-      </c>
-      <c r="X2" t="n">
-        <v>947.0287499999999</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>3458.3661</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>4336.54816</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>2481.73562</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>302.68025</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>3766.4273</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>3066.2283</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>2387.65735</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>197.84552</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>649.70298</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>634.40424</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>1292.26314</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>101.22468</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>622.50056</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>1367.27774</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>1198.36965</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>3702.07494</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>56.81072</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>1196.23552</v>
-      </c>
-      <c r="C3" t="n">
-        <v>4928.83645</v>
-      </c>
-      <c r="D3" t="n">
-        <v>503.28251</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.04487</v>
-      </c>
-      <c r="F3" t="n">
-        <v>219.79613</v>
-      </c>
-      <c r="G3" t="n">
-        <v>3701.29237</v>
-      </c>
-      <c r="H3" t="n">
-        <v>743.58177</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1246.38202</v>
-      </c>
-      <c r="J3" t="n">
-        <v>296.73193</v>
-      </c>
-      <c r="K3" t="n">
-        <v>664.59158</v>
-      </c>
-      <c r="L3" t="n">
-        <v>56469.7235</v>
-      </c>
-      <c r="M3" t="n">
-        <v>71.21343</v>
-      </c>
-      <c r="N3" t="n">
-        <v>166.08786</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1732.8286</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1434.32021</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>151.79157</v>
-      </c>
-      <c r="R3" t="n">
-        <v>640.57759</v>
-      </c>
-      <c r="S3" t="n">
-        <v>196.24788</v>
-      </c>
-      <c r="T3" t="n">
-        <v>86.55216</v>
-      </c>
-      <c r="U3" t="n">
-        <v>516.85762</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1561.85613</v>
-      </c>
-      <c r="W3" t="n">
-        <v>126.86248</v>
-      </c>
-      <c r="X3" t="n">
-        <v>1145.33772</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>3888.08592</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>6695.23233</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>3009.63243</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>399.77844</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>3968.80593</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>2708.41412</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>2485.65434</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>208.47845</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>873.36866</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>795.37121</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>1510.93887</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>113.07411</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>790.75431</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>1659.18151</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>1271.70442</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>4480.09108</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>60.52722</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>1414.08969</v>
-      </c>
-      <c r="C4" t="n">
-        <v>6375.3512</v>
-      </c>
-      <c r="D4" t="n">
-        <v>592.86556</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.02661</v>
-      </c>
-      <c r="F4" t="n">
-        <v>220.07041</v>
-      </c>
-      <c r="G4" t="n">
-        <v>4153.81805</v>
-      </c>
-      <c r="H4" t="n">
-        <v>794.45706</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1454.42211</v>
-      </c>
-      <c r="J4" t="n">
-        <v>321.59211</v>
-      </c>
-      <c r="K4" t="n">
-        <v>779.95017</v>
-      </c>
-      <c r="L4" t="n">
-        <v>64511.70619</v>
-      </c>
-      <c r="M4" t="n">
-        <v>76.517</v>
-      </c>
-      <c r="N4" t="n">
-        <v>189.08533</v>
-      </c>
-      <c r="O4" t="n">
-        <v>2103.09409</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1503.25398</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>167.74386</v>
-      </c>
-      <c r="R4" t="n">
-        <v>681.84537</v>
-      </c>
-      <c r="S4" t="n">
-        <v>217.85702</v>
-      </c>
-      <c r="T4" t="n">
-        <v>84.71616</v>
-      </c>
-      <c r="U4" t="n">
-        <v>582.48441</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1920.88451</v>
-      </c>
-      <c r="W4" t="n">
-        <v>147.38984</v>
-      </c>
-      <c r="X4" t="n">
-        <v>1443.4253</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>4534.84584</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>8133.15767</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>3224.73384</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>428.04263</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>4087.44581</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>2699.36025</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>2694.88825</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>224.40363</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>985.54222</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>908.52313</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>1634.66824</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>128.46852</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>968.84049</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>1879.36437</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>1379.30924</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>5063.60606</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>67.54917</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
